--- a/Documentación/Actividades proyecto.xlsx
+++ b/Documentación/Actividades proyecto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Lista de Actividades faltantes del proyecto</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Dependencias</t>
   </si>
   <si>
-    <t>Interfaz</t>
-  </si>
-  <si>
-    <t>ASP.NET, CSS</t>
-  </si>
-  <si>
     <t>Reunión con centro de cómputo</t>
   </si>
   <si>
@@ -63,70 +57,67 @@
     <t>C#, ADO.Net</t>
   </si>
   <si>
-    <t>1. Modificación de la interfaz</t>
-  </si>
-  <si>
-    <t>2. Modificación de la base de datos</t>
-  </si>
-  <si>
-    <t>3. Investigación sobre bases de datos históricas</t>
-  </si>
-  <si>
-    <t>4. Anulación de la solicitud de inclusión en periodo vigente</t>
-  </si>
-  <si>
-    <t>5. Modificación de la clases entidad</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Tarea 2</t>
   </si>
   <si>
-    <t>6. Modificación del acceso a los ws de Registro</t>
-  </si>
-  <si>
     <t>Negocios - Datos</t>
   </si>
   <si>
     <t>Reglamento de inclusiones</t>
   </si>
   <si>
-    <t>7. Definición de una reunión para conversar el reglamento de inclusiones</t>
-  </si>
-  <si>
-    <t>8. Definición y desarrollo del metodo para ordenar las inclusiones según prioridad</t>
-  </si>
-  <si>
     <t>Tarea 7</t>
   </si>
   <si>
-    <t>9. Definición del algoritmo final del proceso de asignación automático</t>
-  </si>
-  <si>
-    <t>10. Desarrollo del proceso de asignación automático</t>
-  </si>
-  <si>
     <t>Tarea 9</t>
   </si>
   <si>
-    <t>11. Desarrollo del proceso de "Consultar Históricos"</t>
-  </si>
-  <si>
-    <t>12. Desarrollo del método para la creación del correo parametrizable</t>
-  </si>
-  <si>
-    <t>13. Desarrollo de la consulta de sugerencias de nuevos grupos</t>
-  </si>
-  <si>
-    <t>14. Desarrollo de la consulta de solicitudes del periodo y su estado</t>
-  </si>
-  <si>
-    <t>15. Desarrollo de la implementación de los métodos para las reglas del negocio*</t>
-  </si>
-  <si>
     <t>Nota *: Consiste en cómo el administrador va a definir los métodos de cada regla</t>
   </si>
   <si>
     <t>y el cómo los vamos a guardar nosotros en el sistema para usarlos después.</t>
+  </si>
+  <si>
+    <t>1. Modificación de la base de datos</t>
+  </si>
+  <si>
+    <t>2. Investigación sobre bases de datos históricas</t>
+  </si>
+  <si>
+    <t>3. Anulación de la solicitud de inclusión en periodo vigente</t>
+  </si>
+  <si>
+    <t>4. Modificación de la clases entidad</t>
+  </si>
+  <si>
+    <t>5. Modificación del acceso a los ws de Registro</t>
+  </si>
+  <si>
+    <t>6. Definición de una reunión para conversar el reglamento de inclusiones</t>
+  </si>
+  <si>
+    <t>7. Definición y desarrollo del metodo para ordenar las inclusiones según prioridad</t>
+  </si>
+  <si>
+    <t>8. Definición del algoritmo final del proceso de asignación automático</t>
+  </si>
+  <si>
+    <t>9. Desarrollo del proceso de asignación automático</t>
+  </si>
+  <si>
+    <t>10. Desarrollo del proceso de "Consultar Históricos"</t>
+  </si>
+  <si>
+    <t>11. Desarrollo del método para la creación del correo parametrizable</t>
+  </si>
+  <si>
+    <t>12. Desarrollo de la consulta de sugerencias de nuevos grupos</t>
+  </si>
+  <si>
+    <t>13. Desarrollo de la consulta de solicitudes del periodo y su estado</t>
+  </si>
+  <si>
+    <t>14. Desarrollo de la implementación de los métodos para las reglas del negocio*</t>
   </si>
 </sst>
 </file>
@@ -175,13 +166,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,72 +489,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -573,116 +564,102 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
